--- a/汽柴煤油2.0/eta/LU-BU_月度数据.xlsx
+++ b/汽柴煤油2.0/eta/LU-BU_月度数据.xlsx
@@ -458,7 +458,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>-71.2</v>
+        <v>461.4</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>-52.5</v>
+        <v>416.6</v>
       </c>
     </row>
     <row r="4">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-51.2</v>
+        <v>-49.9</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4</v>
+        <v>108.2</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         <v>-13.1</v>
       </c>
       <c r="C5" t="n">
-        <v>68.09999999999999</v>
+        <v>48.1</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>16.5</v>
       </c>
       <c r="C6" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
     </row>
     <row r="7">
@@ -573,7 +573,7 @@
         <v>56.6</v>
       </c>
       <c r="C11" t="n">
-        <v>56.6</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         <v>150.9</v>
       </c>
       <c r="C12" t="n">
-        <v>151</v>
+        <v>150.9</v>
       </c>
     </row>
     <row r="13">
@@ -625,7 +625,7 @@
         <v>594.6</v>
       </c>
       <c r="C15" t="n">
-        <v>594.6</v>
+        <v>594.5</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         <v>773.8</v>
       </c>
       <c r="C16" t="n">
-        <v>773.7</v>
+        <v>773.8</v>
       </c>
     </row>
     <row r="17">
@@ -755,7 +755,7 @@
         <v>459.7</v>
       </c>
       <c r="C25" t="n">
-        <v>459.8</v>
+        <v>459.7</v>
       </c>
     </row>
     <row r="26">
